--- a/ReadScripts/random_forest_results.xlsx
+++ b/ReadScripts/random_forest_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacquelineskunda/Documents/GitHub/696/Milestone2/ReadScripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E82BB95-90F5-6241-9825-D4359065E938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00401E0D-3B79-8945-AECD-827399CBC752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{6405171C-70B8-4540-B98E-64EBC0836A3F}"/>
+    <workbookView xWindow="700" yWindow="1500" windowWidth="28040" windowHeight="16500" xr2:uid="{6405171C-70B8-4540-B98E-64EBC0836A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t xml:space="preserve">All Characters with featues </t>
   </si>
   <si>
-    <t>All Characters with featues &amp; Appeared more than 2 times in the series &amp;  line spoken longer than 3 tokens &amp; Top 20 as a features</t>
-  </si>
-  <si>
     <t>Top 20 Characters only with featues &amp; Appeared more than 2 times in the series &amp; line spoke longer than 3 tokens</t>
   </si>
   <si>
@@ -53,58 +50,52 @@
     <t>Dataset Fed to Model</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Solver</t>
-  </si>
-  <si>
-    <t>Penalty</t>
-  </si>
-  <si>
-    <t>Max Iter</t>
-  </si>
-  <si>
     <t>Accuracy Train Score</t>
   </si>
   <si>
     <t>Accuracy Test Score</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>liblinear</t>
-  </si>
-  <si>
-    <t>saga</t>
-  </si>
-  <si>
-    <t>82.7%%</t>
-  </si>
-  <si>
     <t>All Characters with all featues &amp; Appeared more than 2 times in the series &amp; line spoke longer than 3 tokens</t>
   </si>
   <si>
     <t>All Characters no features</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>N Jobs</t>
-  </si>
-  <si>
-    <t>Precison</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Grid Search done on C': [0.01,0.1,0.5,1.0,5,10], 'penalty':['l1','l2], 'solver':['liblinear','lbfgs','saga'], with score = accuracy and max iter = 250 and cv = 5</t>
-  </si>
-  <si>
-    <t>*** class weight made all of the results worse off so it was removed</t>
+    <t>N Estimators</t>
+  </si>
+  <si>
+    <t>Max Features</t>
+  </si>
+  <si>
+    <t>Max Depth</t>
+  </si>
+  <si>
+    <t>Criterion</t>
+  </si>
+  <si>
+    <t>Min Samples Split</t>
+  </si>
+  <si>
+    <t>Min Samples Leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N Jobs</t>
+  </si>
+  <si>
+    <t>sqrt</t>
+  </si>
+  <si>
+    <t>gini</t>
+  </si>
+  <si>
+    <t>47.75%%</t>
+  </si>
+  <si>
+    <t>71.3%%</t>
   </si>
 </sst>
 </file>
@@ -114,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,21 +135,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -180,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -278,114 +254,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -393,21 +266,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,9 +278,6 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -432,32 +290,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,299 +608,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D58239E-72FE-BC46-A040-857978883CF3}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="17"/>
+    <col min="1" max="1" width="10.83203125" style="11"/>
     <col min="2" max="2" width="58.5" style="1" customWidth="1"/>
-    <col min="8" max="10" width="11.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="17"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19"/>
+    <row r="1" spans="2:11" s="11" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="13" t="s">
+    </row>
+    <row r="3" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>10</v>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.19980000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4">
-        <v>500</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>500</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4">
+      <c r="D5" s="3">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
         <v>500</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G5" s="3">
         <v>-1</v>
       </c>
-      <c r="H4" s="8">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.39600000000000002</v>
+      <c r="H5" s="3">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="4">
+    <row r="6" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>500</v>
+      </c>
+      <c r="G6" s="3">
         <v>-1</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.70040000000000002</v>
+      <c r="H6" s="3">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4">
+    <row r="7" spans="2:11" ht="47" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.92090000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G8" s="3">
         <v>-1</v>
       </c>
-      <c r="H6" s="8">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.70040000000000002</v>
+      <c r="H8" s="3">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
-        <v>500</v>
-      </c>
-      <c r="G7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0.754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5">
-        <v>500</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0.67100000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="18"/>
+    <row r="9" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B10:J11"/>
-    <mergeCell ref="B12:J12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>